--- a/StructureDefinition-ext-R5-ExplanationOfBenefit.payee.xlsx
+++ b/StructureDefinition-ext-R5-ExplanationOfBenefit.payee.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="142">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -410,15 +410,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A code for the party to be reimbursed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-payeetype-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -460,7 +451,7 @@
     <t>Extension.extension:party.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson)
 </t>
   </si>
   <si>
@@ -821,8 +812,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="31.7890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.81640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1740,31 +1731,31 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1776,7 +1767,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>121</v>
@@ -1784,13 +1775,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1815,16 +1806,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1893,7 +1884,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -1996,7 +1987,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2101,7 +2092,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2144,7 +2135,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2206,7 +2197,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>123</v>
@@ -2232,16 +2223,16 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2291,7 +2282,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2303,7 +2294,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>121</v>
@@ -2416,10 +2407,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2442,13 +2433,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2499,7 +2490,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2511,7 +2502,7 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>121</v>
